--- a/mathTransformed/HMPSTT_(2015-11-28)_51_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-11-28)_51_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -484,6 +489,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H P S No.33 Vantamuri colony</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -511,6 +521,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Govt. High SchoolSangreshkoppaSavadatti</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -538,6 +553,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S HirebudanurSavadatti</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -565,6 +585,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>S R High School HoskotiRamdurga</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -592,6 +617,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S MoogabasavaBail-Hongal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -619,6 +649,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. High School ChikkadinakoppaKhanapur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -646,6 +681,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. High School DevalapurBailhongal</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -673,6 +713,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Janata High School SambraBalekundri</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -700,6 +745,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Sharada Girls H S Halaga</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -727,6 +777,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Vidya Mandir High School NesaragiBailhongal</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -754,6 +809,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>S N V V S H S Bailhongal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -781,6 +841,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H P S HalegattiRamadurga</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -808,6 +873,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High SchoolRamadurg</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -835,6 +905,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S MadlurSavadatti</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -862,6 +937,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S NandihalRamdurga</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -889,6 +969,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>M H S Yellur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -916,6 +1001,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S KatridaddiKulavalliBailhongal</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -943,6 +1033,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Ganebail High School GanebailKhanapur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -970,6 +1065,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Shri Dnyaneshwar Vidyalay LokoliKhanapur</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -997,6 +1097,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>V R M M High SchoolBelavadiBailhongal</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1024,6 +1129,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Govt. MLA Model SchoolGurlhosureSaundatti</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1048,7 +1158,8 @@
           <t>MAHANTESH M HULAGABALI</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>MAHANTESH M HULAGABAL</t>
         </is>
@@ -1065,7 +1176,8 @@
           <t>Madhyamik Vidyalay Kangrali BK Belgaum.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Madhyamik Vidyalay Kangrali BK Belgaum</t>
         </is>
@@ -1094,6 +1206,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S B High School TigadolliBailhongal</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1121,6 +1238,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt. High SchoolVeerapur  Kittur RangeBailhongal</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1148,6 +1270,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Govt. High School SalapurRamadurg</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1175,6 +1302,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>S F S Comp PU College (High School Section) SurebanRamdurg</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1202,6 +1334,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Mahantesh High School SalahalliRamdurg</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1229,6 +1366,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>S M S High SchoolMurgud</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1256,6 +1398,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>ST. Paul’s High School Camp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Belgavi</t>
         </is>
       </c>
@@ -1283,6 +1430,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S KaghadalSavadatti</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1308,7 +1460,8 @@
           <t>PATIL S F</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Netaj H S Sulge (Y) Belgaum</t>
         </is>
@@ -1337,6 +1490,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Govt. High School HarugoppaSavadatti</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1364,6 +1522,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S ChikkabellikattiBailhongal</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1391,6 +1554,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S HoolikottiSavadatti</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1418,6 +1586,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>K H S Mannar</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1445,6 +1618,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Govt. High School MallapurK N Bailhongal</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1472,6 +1650,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. Sardar’s PU College</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1499,6 +1682,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H P S ChivatagundiBailwadBaihongal</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1526,6 +1714,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Govt High School SunnalRamadurg</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1553,6 +1746,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S ObalapurRamdurga</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1580,6 +1778,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. High School Hudali</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1607,6 +1810,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Bashiban High School</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1634,6 +1842,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S TorangattiRamadurga</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1661,6 +1874,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G H S Khanagavi BK Belgaumrural</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1688,6 +1906,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>M S S H MullurRamdurga</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1715,6 +1938,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Shri Shivabasaveshwar</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>High Schoo</t>
         </is>
       </c>
@@ -1731,6 +1959,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>NaganurBailhongal</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Belgavi</t>
         </is>
@@ -1759,6 +1992,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Govt. High School SalahalliRamadurg</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1784,7 +2022,8 @@
           <t>VIVEK V SAMAJE</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>D Y Chougle Bharatesh High School Belgaum</t>
         </is>
@@ -1813,6 +2052,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Govt. High SchoolSulebhavi</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1842,6 +2086,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Govt. High School NayanagarBailhongal</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1870,6 +2119,11 @@
         </is>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>Govt. High SchoolK K Koppa</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Belgaum</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-11-28)_51_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-11-28)_51_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1158,10 +1158,9 @@
           <t>MAHANTESH M HULAGABALI</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>MAHANTESH M HULAGABAL</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1176,10 +1175,9 @@
           <t>Madhyamik Vidyalay Kangrali BK Belgaum.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Madhyamik Vidyalay Kangrali BK Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1209,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1241,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1273,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1305,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1337,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1369,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1401,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Belgavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1433,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1460,10 +1458,9 @@
           <t>PATIL S F</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Netaj H S Sulge (Y) Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1492,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1524,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1556,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1588,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1620,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1652,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1684,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1716,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1748,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1780,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1812,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1844,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1876,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1908,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1962,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Belgavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1994,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2022,10 +2019,9 @@
           <t>VIVEK V SAMAJE</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>D Y Chougle Bharatesh High School Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2053,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2087,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2121,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
